--- a/results/initial_descriptives/combined/dataObsStats.xlsx
+++ b/results/initial_descriptives/combined/dataObsStats.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\GitRepos\land-use\results\initial_descriptives\combined\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50101D20-82CA-425B-84A9-44424A2A0886}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48CCC4C-8FD7-4E8B-9DB4-C05A33D0B501}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="county-year" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,17 @@
     <sheet name="variables" sheetId="5" r:id="rId5"/>
     <sheet name="charts" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="38">
   <si>
     <t>year</t>
   </si>
   <si>
     <t>data_NRNRICRP</t>
-  </si>
-  <si>
-    <t>datapcnt_NRINRCRP</t>
-  </si>
-  <si>
-    <t>data_NRI</t>
   </si>
   <si>
     <t>datapcnt_NRI</t>
@@ -132,9 +126,6 @@
     <t>obs has NRcrop data</t>
   </si>
   <si>
-    <t>obs has NRI data</t>
-  </si>
-  <si>
     <t>obs has NRI LU data in 1/6 classes of interest</t>
   </si>
   <si>
@@ -145,6 +136,9 @@
   </si>
   <si>
     <t>obs is missing data value</t>
+  </si>
+  <si>
+    <t>datapcnt_NRNRICRP</t>
   </si>
 </sst>
 </file>
@@ -186,7 +180,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -248,7 +242,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>[of County-Years with NRI Data]</a:t>
+              <a:t>[of County-Years with NRI Data in 6LU</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Classes of Interest</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>]</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -290,103 +292,11 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="4"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'county-year'!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>datapcnt_NRI6classes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="65000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'county-year'!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1982</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1987</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2012</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'county-year'!$I$2:$I$8</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-79E9-4FEE-90D3-0FFDC4E2079E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'county-year'!$M$1</c:f>
+              <c:f>'county-year'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -437,7 +347,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'county-year'!$M$2:$M$8</c:f>
+              <c:f>'county-year'!$L$2:$L$8</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -473,10 +383,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'county-year'!$Q$1</c:f>
+              <c:f>'county-year'!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -527,7 +437,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'county-year'!$Q$2:$Q$8</c:f>
+              <c:f>'county-year'!$P$2:$P$8</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -563,10 +473,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'county-year'!$U$1</c:f>
+              <c:f>'county-year'!$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -619,7 +529,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'county-year'!$U$2:$U$8</c:f>
+              <c:f>'county-year'!$T$2:$T$8</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -655,10 +565,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'county-year'!$Y$1</c:f>
+              <c:f>'county-year'!$X$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -711,7 +621,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'county-year'!$Y$2:$Y$8</c:f>
+              <c:f>'county-year'!$X$2:$X$8</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -747,14 +657,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="5"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>'county-year'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>datapcnt_NRINRCRP</c:v>
+                  <c:v>datapcnt_NRNRICRP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1139,7 +1049,17 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>[of Point-Years with NRI Data]</a:t>
+              <a:t>[of Point-Years with NRI Data in </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>6LU Classes of Interest</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>]</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1181,103 +1101,11 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="4"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'point-year'!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>data_NRI6classes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="65000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'county-year'!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1982</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1987</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2012</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'point-year'!$H$2:$H$8</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1362620</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1362620</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1362620</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1362620</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1362620</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1362620</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1362620</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-06F2-40CA-B4B0-F92F1732028A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'point-year'!$L$1</c:f>
+              <c:f>'point-year'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1328,7 +1156,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'point-year'!$L$2:$L$8</c:f>
+              <c:f>'point-year'!$K$2:$K$8</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1364,10 +1192,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'point-year'!$P$1</c:f>
+              <c:f>'point-year'!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1418,7 +1246,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'point-year'!$P$2:$P$8</c:f>
+              <c:f>'point-year'!$O$2:$O$8</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1454,10 +1282,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'point-year'!$T$1</c:f>
+              <c:f>'point-year'!$S$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1510,7 +1338,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'point-year'!$T$2:$T$8</c:f>
+              <c:f>'point-year'!$S$2:$S$8</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1546,10 +1374,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'point-year'!$X$1</c:f>
+              <c:f>'point-year'!$W$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1602,7 +1430,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'point-year'!$X$2:$X$8</c:f>
+              <c:f>'point-year'!$W$2:$W$8</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1638,7 +1466,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="5"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>'point-year'!$B$1</c:f>
@@ -1986,6 +1814,1624 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Point-Year Data Availability</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>[of Point-Years with NRI Data in </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>6LU Classes of Interest</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>]</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'point-year'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>datapcnt_NRcrop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'county-year'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'point-year'!$L$2:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>87.777519226074219</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.049430847167969</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.842491149902344</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84.510940551757813</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.298774719238281</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.954238891601563</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82.877983093261719</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0D1B-4E2C-AA10-DC939E5FD4C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'point-year'!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>datapcnt_NRforest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'county-year'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'point-year'!$P$2:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.165901184082031</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.165901184082031</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82.165901184082031</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0D1B-4E2C-AA10-DC939E5FD4C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'point-year'!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>datapcnt_NRurban</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'county-year'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'point-year'!$T$2:$T$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0D1B-4E2C-AA10-DC939E5FD4C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'point-year'!$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>datapcnt_CRP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'county-year'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'point-year'!$X$2:$X$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.893150329589844</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.893150329589844</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.893150329589844</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.893150329589844</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.893150329589844</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99.893150329589844</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0D1B-4E2C-AA10-DC939E5FD4C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'point-year'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>datapcnt_NRNRICRP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'county-year'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'point-year'!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68.2293701171875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67.450790405273438</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.489692687988281</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0D1B-4E2C-AA10-DC939E5FD4C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="474638136"/>
+        <c:axId val="474635512"/>
+        <c:extLst/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="474638136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="474635512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="474635512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>%</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="474638136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>County-Year Data Availability</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>[of County-Years with NRI Data in 6LU</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Classes of Interest</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>]</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'county-year'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>data_NRcrop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'county-year'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'county-year'!$K$2:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2618</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2593</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2556</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2502</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2466</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2466</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BB12-4C94-AF64-27C8D8D6ACC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'county-year'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>data_NRforest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'county-year'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'county-year'!$O$2:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2564</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2564</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2564</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BB12-4C94-AF64-27C8D8D6ACC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'county-year'!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>data_NRurban</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'county-year'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'county-year'!$S$2:$S$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3072</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BB12-4C94-AF64-27C8D8D6ACC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'county-year'!$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>data_CRP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'county-year'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'county-year'!$W$2:$W$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3065</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3065</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3065</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3065</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3065</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3065</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BB12-4C94-AF64-27C8D8D6ACC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'county-year'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>data_NRNRICRP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'county-year'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'county-year'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2069</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2043</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BB12-4C94-AF64-27C8D8D6ACC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="474638136"/>
+        <c:axId val="474635512"/>
+        <c:extLst/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="474638136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="474635512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="474635512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3250"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="474638136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="250"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2066,6 +3512,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3072,26 +4598,1032 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
-            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C35E045-3015-4EC8-8467-9625CD03B0FA}"/>
             </a:ext>
           </a:extLst>
@@ -3114,22 +5646,22 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
-            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7227C61E-E1DB-4E2D-8C35-7F2B3D7404C9}"/>
             </a:ext>
           </a:extLst>
@@ -3145,6 +5677,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{766482C0-10E9-436A-A6E8-7B148E98139F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B52DD029-52D6-4B1F-BF92-63A40838B09F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3450,44 +6058,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="true" customWidth="true"/>
-    <col min="2" max="2" width="15.140625" bestFit="true" customWidth="true"/>
-    <col min="3" max="3" width="19.140625" bestFit="true" customWidth="true"/>
-    <col min="4" max="4" width="9" bestFit="true" customWidth="true"/>
-    <col min="5" max="5" width="12.85546875" bestFit="true" customWidth="true"/>
-    <col min="6" max="6" width="11.28515625" bestFit="true" customWidth="true"/>
-    <col min="7" max="7" width="15.28515625" bestFit="true" customWidth="true"/>
-    <col min="8" max="8" width="16.28515625" bestFit="true" customWidth="true"/>
-    <col min="9" max="9" width="20.28515625" bestFit="true" customWidth="true"/>
-    <col min="10" max="10" width="18.7109375" bestFit="true" customWidth="true"/>
-    <col min="11" max="11" width="22.7109375" bestFit="true" customWidth="true"/>
-    <col min="12" max="12" width="12.28515625" bestFit="true" customWidth="true"/>
-    <col min="13" max="13" width="16.28515625" bestFit="true" customWidth="true"/>
-    <col min="14" max="14" width="14.7109375" bestFit="true" customWidth="true"/>
-    <col min="15" max="15" width="18.7109375" bestFit="true" customWidth="true"/>
-    <col min="16" max="16" width="13.85546875" bestFit="true" customWidth="true"/>
-    <col min="17" max="17" width="17.85546875" bestFit="true" customWidth="true"/>
-    <col min="18" max="18" width="16.140625" bestFit="true" customWidth="true"/>
-    <col min="19" max="19" width="20.140625" bestFit="true" customWidth="true"/>
-    <col min="20" max="20" width="13.7109375" bestFit="true" customWidth="true"/>
-    <col min="21" max="21" width="17.7109375" bestFit="true" customWidth="true"/>
-    <col min="22" max="22" width="16" bestFit="true" customWidth="true"/>
-    <col min="23" max="23" width="20" bestFit="true" customWidth="true"/>
-    <col min="24" max="24" width="9.28515625" bestFit="true" customWidth="true"/>
-    <col min="25" max="25" width="13.28515625" bestFit="true" customWidth="true"/>
-    <col min="26" max="26" width="11.5703125" bestFit="true" customWidth="true"/>
-    <col min="27" max="27" width="15.5703125" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3495,82 +6103,79 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26">
       <c r="A2" s="1">
         <v>1982</v>
       </c>
@@ -3593,67 +6198,64 @@
         <v>0</v>
       </c>
       <c r="H2" s="1">
+        <v>100</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2618</v>
+      </c>
+      <c r="L2" s="1">
+        <v>85.221351623535156</v>
+      </c>
+      <c r="M2" s="1">
+        <v>454</v>
+      </c>
+      <c r="N2" s="1">
+        <v>14.778645515441895</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
         <v>3072</v>
       </c>
-      <c r="I2" s="1">
+      <c r="R2" s="1">
         <v>100</v>
       </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>2618</v>
-      </c>
-      <c r="M2" s="1">
-        <v>85.221351623535156</v>
-      </c>
-      <c r="N2" s="1">
-        <v>454</v>
-      </c>
-      <c r="O2" s="1">
-        <v>14.778645515441895</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1">
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
         <v>3072</v>
       </c>
-      <c r="S2" s="1">
+      <c r="V2" s="1">
         <v>100</v>
       </c>
-      <c r="T2" s="1">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1">
-        <v>0</v>
-      </c>
-      <c r="V2" s="1">
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
         <v>3072</v>
       </c>
-      <c r="W2" s="1">
+      <c r="Z2" s="1">
         <v>100</v>
       </c>
-      <c r="X2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>3072</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>100</v>
-      </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26">
       <c r="A3" s="1">
         <v>1987</v>
       </c>
@@ -3676,67 +6278,64 @@
         <v>0</v>
       </c>
       <c r="H3" s="1">
+        <v>100</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2593</v>
+      </c>
+      <c r="L3" s="1">
+        <v>84.407554626464844</v>
+      </c>
+      <c r="M3" s="1">
+        <v>479</v>
+      </c>
+      <c r="N3" s="1">
+        <v>15.592448234558105</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
         <v>3072</v>
       </c>
-      <c r="I3" s="1">
+      <c r="R3" s="1">
         <v>100</v>
       </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>2593</v>
-      </c>
-      <c r="M3" s="1">
-        <v>84.407554626464844</v>
-      </c>
-      <c r="N3" s="1">
-        <v>479</v>
-      </c>
-      <c r="O3" s="1">
-        <v>15.592448234558105</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0</v>
-      </c>
-      <c r="R3" s="1">
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
         <v>3072</v>
       </c>
-      <c r="S3" s="1">
+      <c r="V3" s="1">
         <v>100</v>
       </c>
-      <c r="T3" s="1">
-        <v>0</v>
-      </c>
-      <c r="U3" s="1">
-        <v>0</v>
-      </c>
-      <c r="V3" s="1">
-        <v>3072</v>
-      </c>
       <c r="W3" s="1">
-        <v>100</v>
+        <v>3065</v>
       </c>
       <c r="X3" s="1">
-        <v>3065</v>
+        <v>99.772132873535156</v>
       </c>
       <c r="Y3" s="1">
-        <v>99.772132873535156</v>
+        <v>7</v>
       </c>
       <c r="Z3" s="1">
-        <v>7</v>
-      </c>
-      <c r="AA3" s="1">
         <v>0.2278645783662796</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26">
       <c r="A4" s="1">
         <v>1992</v>
       </c>
@@ -3759,67 +6358,64 @@
         <v>0</v>
       </c>
       <c r="H4" s="1">
+        <v>100</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2556</v>
+      </c>
+      <c r="L4" s="1">
+        <v>83.203125</v>
+      </c>
+      <c r="M4" s="1">
+        <v>516</v>
+      </c>
+      <c r="N4" s="1">
+        <v>16.796875</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
         <v>3072</v>
       </c>
-      <c r="I4" s="1">
+      <c r="R4" s="1">
         <v>100</v>
       </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>2556</v>
-      </c>
-      <c r="M4" s="1">
-        <v>83.203125</v>
-      </c>
-      <c r="N4" s="1">
-        <v>516</v>
-      </c>
-      <c r="O4" s="1">
-        <v>16.796875</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1">
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
         <v>3072</v>
       </c>
-      <c r="S4" s="1">
+      <c r="V4" s="1">
         <v>100</v>
       </c>
-      <c r="T4" s="1">
-        <v>0</v>
-      </c>
-      <c r="U4" s="1">
-        <v>0</v>
-      </c>
-      <c r="V4" s="1">
-        <v>3072</v>
-      </c>
       <c r="W4" s="1">
-        <v>100</v>
+        <v>3065</v>
       </c>
       <c r="X4" s="1">
-        <v>3065</v>
+        <v>99.772132873535156</v>
       </c>
       <c r="Y4" s="1">
-        <v>99.772132873535156</v>
+        <v>7</v>
       </c>
       <c r="Z4" s="1">
-        <v>7</v>
-      </c>
-      <c r="AA4" s="1">
         <v>0.2278645783662796</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26">
       <c r="A5" s="1">
         <v>1997</v>
       </c>
@@ -3842,67 +6438,64 @@
         <v>0</v>
       </c>
       <c r="H5" s="1">
+        <v>100</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2512</v>
+      </c>
+      <c r="L5" s="1">
+        <v>81.770835876464844</v>
+      </c>
+      <c r="M5" s="1">
+        <v>560</v>
+      </c>
+      <c r="N5" s="1">
+        <v>18.229166030883789</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
         <v>3072</v>
       </c>
-      <c r="I5" s="1">
+      <c r="R5" s="1">
         <v>100</v>
       </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>2512</v>
-      </c>
-      <c r="M5" s="1">
-        <v>81.770835876464844</v>
-      </c>
-      <c r="N5" s="1">
-        <v>560</v>
-      </c>
-      <c r="O5" s="1">
-        <v>18.229166030883789</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0</v>
-      </c>
-      <c r="R5" s="1">
+      <c r="S5" s="1">
         <v>3072</v>
       </c>
-      <c r="S5" s="1">
+      <c r="T5" s="1">
         <v>100</v>
       </c>
-      <c r="T5" s="1">
-        <v>3072</v>
-      </c>
       <c r="U5" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V5" s="1">
         <v>0</v>
       </c>
       <c r="W5" s="1">
-        <v>0</v>
+        <v>3065</v>
       </c>
       <c r="X5" s="1">
-        <v>3065</v>
+        <v>99.772132873535156</v>
       </c>
       <c r="Y5" s="1">
-        <v>99.772132873535156</v>
+        <v>7</v>
       </c>
       <c r="Z5" s="1">
-        <v>7</v>
-      </c>
-      <c r="AA5" s="1">
         <v>0.2278645783662796</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26">
       <c r="A6" s="1">
         <v>2002</v>
       </c>
@@ -3925,67 +6518,64 @@
         <v>0</v>
       </c>
       <c r="H6" s="1">
+        <v>100</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2502</v>
+      </c>
+      <c r="L6" s="1">
+        <v>81.4453125</v>
+      </c>
+      <c r="M6" s="1">
+        <v>570</v>
+      </c>
+      <c r="N6" s="1">
+        <v>18.5546875</v>
+      </c>
+      <c r="O6" s="1">
+        <v>2564</v>
+      </c>
+      <c r="P6" s="1">
+        <v>83.463539123535156</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>508</v>
+      </c>
+      <c r="R6" s="1">
+        <v>16.536458969116211</v>
+      </c>
+      <c r="S6" s="1">
         <v>3072</v>
       </c>
-      <c r="I6" s="1">
+      <c r="T6" s="1">
         <v>100</v>
       </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>2502</v>
-      </c>
-      <c r="M6" s="1">
-        <v>81.4453125</v>
-      </c>
-      <c r="N6" s="1">
-        <v>570</v>
-      </c>
-      <c r="O6" s="1">
-        <v>18.5546875</v>
-      </c>
-      <c r="P6" s="1">
-        <v>2564</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>83.463539123535156</v>
-      </c>
-      <c r="R6" s="1">
-        <v>508</v>
-      </c>
-      <c r="S6" s="1">
-        <v>16.536458969116211</v>
-      </c>
-      <c r="T6" s="1">
-        <v>3072</v>
-      </c>
       <c r="U6" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V6" s="1">
         <v>0</v>
       </c>
       <c r="W6" s="1">
-        <v>0</v>
+        <v>3065</v>
       </c>
       <c r="X6" s="1">
-        <v>3065</v>
+        <v>99.772132873535156</v>
       </c>
       <c r="Y6" s="1">
-        <v>99.772132873535156</v>
+        <v>7</v>
       </c>
       <c r="Z6" s="1">
-        <v>7</v>
-      </c>
-      <c r="AA6" s="1">
         <v>0.2278645783662796</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26">
       <c r="A7" s="1">
         <v>2007</v>
       </c>
@@ -4008,67 +6598,64 @@
         <v>0</v>
       </c>
       <c r="H7" s="1">
+        <v>100</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2466</v>
+      </c>
+      <c r="L7" s="1">
+        <v>80.2734375</v>
+      </c>
+      <c r="M7" s="1">
+        <v>606</v>
+      </c>
+      <c r="N7" s="1">
+        <v>19.7265625</v>
+      </c>
+      <c r="O7" s="1">
+        <v>2564</v>
+      </c>
+      <c r="P7" s="1">
+        <v>83.463539123535156</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>508</v>
+      </c>
+      <c r="R7" s="1">
+        <v>16.536458969116211</v>
+      </c>
+      <c r="S7" s="1">
         <v>3072</v>
       </c>
-      <c r="I7" s="1">
+      <c r="T7" s="1">
         <v>100</v>
       </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>2466</v>
-      </c>
-      <c r="M7" s="1">
-        <v>80.2734375</v>
-      </c>
-      <c r="N7" s="1">
-        <v>606</v>
-      </c>
-      <c r="O7" s="1">
-        <v>19.7265625</v>
-      </c>
-      <c r="P7" s="1">
-        <v>2564</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>83.463539123535156</v>
-      </c>
-      <c r="R7" s="1">
-        <v>508</v>
-      </c>
-      <c r="S7" s="1">
-        <v>16.536458969116211</v>
-      </c>
-      <c r="T7" s="1">
-        <v>3072</v>
-      </c>
       <c r="U7" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V7" s="1">
         <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>0</v>
+        <v>3065</v>
       </c>
       <c r="X7" s="1">
-        <v>3065</v>
+        <v>99.772132873535156</v>
       </c>
       <c r="Y7" s="1">
-        <v>99.772132873535156</v>
+        <v>7</v>
       </c>
       <c r="Z7" s="1">
-        <v>7</v>
-      </c>
-      <c r="AA7" s="1">
         <v>0.2278645783662796</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26">
       <c r="A8" s="1">
         <v>2012</v>
       </c>
@@ -4091,63 +6678,60 @@
         <v>0</v>
       </c>
       <c r="H8" s="1">
+        <v>100</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2466</v>
+      </c>
+      <c r="L8" s="1">
+        <v>80.2734375</v>
+      </c>
+      <c r="M8" s="1">
+        <v>606</v>
+      </c>
+      <c r="N8" s="1">
+        <v>19.7265625</v>
+      </c>
+      <c r="O8" s="1">
+        <v>2564</v>
+      </c>
+      <c r="P8" s="1">
+        <v>83.463539123535156</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>508</v>
+      </c>
+      <c r="R8" s="1">
+        <v>16.536458969116211</v>
+      </c>
+      <c r="S8" s="1">
         <v>3072</v>
       </c>
-      <c r="I8" s="1">
+      <c r="T8" s="1">
         <v>100</v>
       </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>2466</v>
-      </c>
-      <c r="M8" s="1">
-        <v>80.2734375</v>
-      </c>
-      <c r="N8" s="1">
-        <v>606</v>
-      </c>
-      <c r="O8" s="1">
-        <v>19.7265625</v>
-      </c>
-      <c r="P8" s="1">
-        <v>2564</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>83.463539123535156</v>
-      </c>
-      <c r="R8" s="1">
-        <v>508</v>
-      </c>
-      <c r="S8" s="1">
-        <v>16.536458969116211</v>
-      </c>
-      <c r="T8" s="1">
-        <v>3072</v>
-      </c>
       <c r="U8" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V8" s="1">
         <v>0</v>
       </c>
       <c r="W8" s="1">
-        <v>0</v>
+        <v>3065</v>
       </c>
       <c r="X8" s="1">
-        <v>3065</v>
+        <v>99.772132873535156</v>
       </c>
       <c r="Y8" s="1">
-        <v>99.772132873535156</v>
+        <v>7</v>
       </c>
       <c r="Z8" s="1">
-        <v>7</v>
-      </c>
-      <c r="AA8" s="1">
         <v>0.2278645783662796</v>
       </c>
     </row>
@@ -4158,7 +6742,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:Z2"/>
@@ -4166,115 +6750,112 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="true" customWidth="true"/>
-    <col min="2" max="2" width="19.140625" bestFit="true" customWidth="true"/>
-    <col min="3" max="3" width="9" bestFit="true" customWidth="true"/>
-    <col min="4" max="4" width="12.85546875" bestFit="true" customWidth="true"/>
-    <col min="5" max="5" width="11.28515625" bestFit="true" customWidth="true"/>
-    <col min="6" max="6" width="15.28515625" bestFit="true" customWidth="true"/>
-    <col min="7" max="7" width="16.28515625" bestFit="true" customWidth="true"/>
-    <col min="8" max="8" width="20.28515625" bestFit="true" customWidth="true"/>
-    <col min="9" max="9" width="18.7109375" bestFit="true" customWidth="true"/>
-    <col min="10" max="10" width="22.7109375" bestFit="true" customWidth="true"/>
-    <col min="11" max="11" width="12.28515625" bestFit="true" customWidth="true"/>
-    <col min="12" max="12" width="16.28515625" bestFit="true" customWidth="true"/>
-    <col min="13" max="13" width="14.7109375" bestFit="true" customWidth="true"/>
-    <col min="14" max="14" width="18.7109375" bestFit="true" customWidth="true"/>
-    <col min="15" max="15" width="13.85546875" bestFit="true" customWidth="true"/>
-    <col min="16" max="16" width="17.85546875" bestFit="true" customWidth="true"/>
-    <col min="17" max="17" width="16.140625" bestFit="true" customWidth="true"/>
-    <col min="18" max="18" width="20.140625" bestFit="true" customWidth="true"/>
-    <col min="19" max="19" width="13.7109375" bestFit="true" customWidth="true"/>
-    <col min="20" max="20" width="17.7109375" bestFit="true" customWidth="true"/>
-    <col min="21" max="21" width="16" bestFit="true" customWidth="true"/>
-    <col min="22" max="22" width="20" bestFit="true" customWidth="true"/>
-    <col min="23" max="23" width="9.28515625" bestFit="true" customWidth="true"/>
-    <col min="24" max="24" width="13.28515625" bestFit="true" customWidth="true"/>
-    <col min="25" max="25" width="11.5703125" bestFit="true" customWidth="true"/>
-    <col min="26" max="26" width="15.5703125" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:25">
       <c r="A2" s="1">
         <v>6153</v>
       </c>
@@ -4294,63 +6875,60 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>21504</v>
+        <v>100</v>
       </c>
       <c r="H2" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
+        <v>17713</v>
       </c>
       <c r="K2" s="1">
-        <v>17713</v>
+        <v>82.370719909667969</v>
       </c>
       <c r="L2" s="1">
-        <v>82.370719909667969</v>
+        <v>3791</v>
       </c>
       <c r="M2" s="1">
-        <v>3791</v>
+        <v>17.629278182983398</v>
       </c>
       <c r="N2" s="1">
-        <v>17.629278182983398</v>
+        <v>7692</v>
       </c>
       <c r="O2" s="1">
-        <v>7692</v>
+        <v>35.770088195800781</v>
       </c>
       <c r="P2" s="1">
-        <v>35.770088195800781</v>
+        <v>13812</v>
       </c>
       <c r="Q2" s="1">
-        <v>13812</v>
+        <v>64.229911804199219</v>
       </c>
       <c r="R2" s="1">
-        <v>64.229911804199219</v>
+        <v>12288</v>
       </c>
       <c r="S2" s="1">
-        <v>12288</v>
+        <v>57.142856597900391</v>
       </c>
       <c r="T2" s="1">
-        <v>57.142856597900391</v>
+        <v>9216</v>
       </c>
       <c r="U2" s="1">
-        <v>9216</v>
+        <v>42.857143402099609</v>
       </c>
       <c r="V2" s="1">
-        <v>42.857143402099609</v>
+        <v>18390</v>
       </c>
       <c r="W2" s="1">
-        <v>18390</v>
+        <v>85.518974304199219</v>
       </c>
       <c r="X2" s="1">
-        <v>85.518974304199219</v>
+        <v>3114</v>
       </c>
       <c r="Y2" s="1">
-        <v>3114</v>
-      </c>
-      <c r="Z2" s="1">
         <v>14.481026649475098</v>
       </c>
     </row>
@@ -4361,7 +6939,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G5" sqref="A1:AA8"/>
@@ -4369,36 +6947,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="true" customWidth="true"/>
-    <col min="2" max="2" width="15.140625" bestFit="true" customWidth="true"/>
-    <col min="3" max="3" width="19.140625" bestFit="true" customWidth="true"/>
-    <col min="4" max="4" width="9" bestFit="true" customWidth="true"/>
-    <col min="5" max="5" width="12.85546875" bestFit="true" customWidth="true"/>
-    <col min="6" max="6" width="11.28515625" bestFit="true" customWidth="true"/>
-    <col min="7" max="7" width="15.28515625" bestFit="true" customWidth="true"/>
-    <col min="8" max="8" width="16.28515625" bestFit="true" customWidth="true"/>
-    <col min="9" max="9" width="20.28515625" bestFit="true" customWidth="true"/>
-    <col min="10" max="10" width="18.7109375" bestFit="true" customWidth="true"/>
-    <col min="11" max="11" width="22.7109375" bestFit="true" customWidth="true"/>
-    <col min="12" max="12" width="12.28515625" bestFit="true" customWidth="true"/>
-    <col min="13" max="13" width="16.28515625" bestFit="true" customWidth="true"/>
-    <col min="14" max="14" width="14.7109375" bestFit="true" customWidth="true"/>
-    <col min="15" max="15" width="18.7109375" bestFit="true" customWidth="true"/>
-    <col min="16" max="16" width="13.85546875" bestFit="true" customWidth="true"/>
-    <col min="17" max="17" width="17.85546875" bestFit="true" customWidth="true"/>
-    <col min="18" max="18" width="16.140625" bestFit="true" customWidth="true"/>
-    <col min="19" max="19" width="20.140625" bestFit="true" customWidth="true"/>
-    <col min="20" max="20" width="13.7109375" bestFit="true" customWidth="true"/>
-    <col min="21" max="21" width="17.7109375" bestFit="true" customWidth="true"/>
-    <col min="22" max="22" width="16" bestFit="true" customWidth="true"/>
-    <col min="23" max="23" width="20" bestFit="true" customWidth="true"/>
-    <col min="24" max="24" width="9.28515625" bestFit="true" customWidth="true"/>
-    <col min="25" max="25" width="13.28515625" bestFit="true" customWidth="true"/>
-    <col min="26" max="26" width="11.5703125" bestFit="true" customWidth="true"/>
-    <col min="27" max="27" width="15.5703125" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4406,82 +6984,79 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26">
       <c r="A2" s="1">
         <v>1982</v>
       </c>
@@ -4504,67 +7079,64 @@
         <v>0</v>
       </c>
       <c r="H2" s="1">
+        <v>100</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1196074</v>
+      </c>
+      <c r="L2" s="1">
+        <v>87.777519226074219</v>
+      </c>
+      <c r="M2" s="1">
+        <v>166546</v>
+      </c>
+      <c r="N2" s="1">
+        <v>12.222482681274414</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
         <v>1362620</v>
       </c>
-      <c r="I2" s="1">
+      <c r="R2" s="1">
         <v>100</v>
       </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1196074</v>
-      </c>
-      <c r="M2" s="1">
-        <v>87.777519226074219</v>
-      </c>
-      <c r="N2" s="1">
-        <v>166546</v>
-      </c>
-      <c r="O2" s="1">
-        <v>12.222482681274414</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1">
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
         <v>1362620</v>
       </c>
-      <c r="S2" s="1">
+      <c r="V2" s="1">
         <v>100</v>
       </c>
-      <c r="T2" s="1">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1">
-        <v>0</v>
-      </c>
-      <c r="V2" s="1">
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
         <v>1362620</v>
       </c>
-      <c r="W2" s="1">
+      <c r="Z2" s="1">
         <v>100</v>
       </c>
-      <c r="X2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>1362620</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>100</v>
-      </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26">
       <c r="A3" s="1">
         <v>1987</v>
       </c>
@@ -4587,67 +7159,64 @@
         <v>0</v>
       </c>
       <c r="H3" s="1">
+        <v>100</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1186153</v>
+      </c>
+      <c r="L3" s="1">
+        <v>87.049430847167969</v>
+      </c>
+      <c r="M3" s="1">
+        <v>176467</v>
+      </c>
+      <c r="N3" s="1">
+        <v>12.950566291809082</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
         <v>1362620</v>
       </c>
-      <c r="I3" s="1">
+      <c r="R3" s="1">
         <v>100</v>
       </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1186153</v>
-      </c>
-      <c r="M3" s="1">
-        <v>87.049430847167969</v>
-      </c>
-      <c r="N3" s="1">
-        <v>176467</v>
-      </c>
-      <c r="O3" s="1">
-        <v>12.950566291809082</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0</v>
-      </c>
-      <c r="R3" s="1">
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
         <v>1362620</v>
       </c>
-      <c r="S3" s="1">
+      <c r="V3" s="1">
         <v>100</v>
       </c>
-      <c r="T3" s="1">
-        <v>0</v>
-      </c>
-      <c r="U3" s="1">
-        <v>0</v>
-      </c>
-      <c r="V3" s="1">
-        <v>1362620</v>
-      </c>
       <c r="W3" s="1">
-        <v>100</v>
+        <v>1361164</v>
       </c>
       <c r="X3" s="1">
-        <v>1361164</v>
+        <v>99.893150329589844</v>
       </c>
       <c r="Y3" s="1">
-        <v>99.893150329589844</v>
+        <v>1456</v>
       </c>
       <c r="Z3" s="1">
-        <v>1456</v>
-      </c>
-      <c r="AA3" s="1">
         <v>0.10685297101736069</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26">
       <c r="A4" s="1">
         <v>1992</v>
       </c>
@@ -4670,67 +7239,64 @@
         <v>0</v>
       </c>
       <c r="H4" s="1">
+        <v>100</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1169707</v>
+      </c>
+      <c r="L4" s="1">
+        <v>85.842491149902344</v>
+      </c>
+      <c r="M4" s="1">
+        <v>192913</v>
+      </c>
+      <c r="N4" s="1">
+        <v>14.157505035400391</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
         <v>1362620</v>
       </c>
-      <c r="I4" s="1">
+      <c r="R4" s="1">
         <v>100</v>
       </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1169707</v>
-      </c>
-      <c r="M4" s="1">
-        <v>85.842491149902344</v>
-      </c>
-      <c r="N4" s="1">
-        <v>192913</v>
-      </c>
-      <c r="O4" s="1">
-        <v>14.157505035400391</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1">
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
         <v>1362620</v>
       </c>
-      <c r="S4" s="1">
+      <c r="V4" s="1">
         <v>100</v>
       </c>
-      <c r="T4" s="1">
-        <v>0</v>
-      </c>
-      <c r="U4" s="1">
-        <v>0</v>
-      </c>
-      <c r="V4" s="1">
-        <v>1362620</v>
-      </c>
       <c r="W4" s="1">
-        <v>100</v>
+        <v>1361164</v>
       </c>
       <c r="X4" s="1">
-        <v>1361164</v>
+        <v>99.893150329589844</v>
       </c>
       <c r="Y4" s="1">
-        <v>99.893150329589844</v>
+        <v>1456</v>
       </c>
       <c r="Z4" s="1">
-        <v>1456</v>
-      </c>
-      <c r="AA4" s="1">
         <v>0.10685297101736069</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26">
       <c r="A5" s="1">
         <v>1997</v>
       </c>
@@ -4753,67 +7319,64 @@
         <v>0</v>
       </c>
       <c r="H5" s="1">
+        <v>100</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1151563</v>
+      </c>
+      <c r="L5" s="1">
+        <v>84.510940551757813</v>
+      </c>
+      <c r="M5" s="1">
+        <v>211057</v>
+      </c>
+      <c r="N5" s="1">
+        <v>15.489057540893555</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
         <v>1362620</v>
       </c>
-      <c r="I5" s="1">
+      <c r="R5" s="1">
         <v>100</v>
       </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1151563</v>
-      </c>
-      <c r="M5" s="1">
-        <v>84.510940551757813</v>
-      </c>
-      <c r="N5" s="1">
-        <v>211057</v>
-      </c>
-      <c r="O5" s="1">
-        <v>15.489057540893555</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0</v>
-      </c>
-      <c r="R5" s="1">
+      <c r="S5" s="1">
         <v>1362620</v>
       </c>
-      <c r="S5" s="1">
+      <c r="T5" s="1">
         <v>100</v>
       </c>
-      <c r="T5" s="1">
-        <v>1362620</v>
-      </c>
       <c r="U5" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V5" s="1">
         <v>0</v>
       </c>
       <c r="W5" s="1">
-        <v>0</v>
+        <v>1361164</v>
       </c>
       <c r="X5" s="1">
-        <v>1361164</v>
+        <v>99.893150329589844</v>
       </c>
       <c r="Y5" s="1">
-        <v>99.893150329589844</v>
+        <v>1456</v>
       </c>
       <c r="Z5" s="1">
-        <v>1456</v>
-      </c>
-      <c r="AA5" s="1">
         <v>0.10685297101736069</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26">
       <c r="A6" s="1">
         <v>2002</v>
       </c>
@@ -4836,67 +7399,64 @@
         <v>0</v>
       </c>
       <c r="H6" s="1">
+        <v>100</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1148672</v>
+      </c>
+      <c r="L6" s="1">
+        <v>84.298774719238281</v>
+      </c>
+      <c r="M6" s="1">
+        <v>213948</v>
+      </c>
+      <c r="N6" s="1">
+        <v>15.70122241973877</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1119609</v>
+      </c>
+      <c r="P6" s="1">
+        <v>82.165901184082031</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>243011</v>
+      </c>
+      <c r="R6" s="1">
+        <v>17.834098815917969</v>
+      </c>
+      <c r="S6" s="1">
         <v>1362620</v>
       </c>
-      <c r="I6" s="1">
+      <c r="T6" s="1">
         <v>100</v>
       </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1148672</v>
-      </c>
-      <c r="M6" s="1">
-        <v>84.298774719238281</v>
-      </c>
-      <c r="N6" s="1">
-        <v>213948</v>
-      </c>
-      <c r="O6" s="1">
-        <v>15.70122241973877</v>
-      </c>
-      <c r="P6" s="1">
-        <v>1119609</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>82.165901184082031</v>
-      </c>
-      <c r="R6" s="1">
-        <v>243011</v>
-      </c>
-      <c r="S6" s="1">
-        <v>17.834098815917969</v>
-      </c>
-      <c r="T6" s="1">
-        <v>1362620</v>
-      </c>
       <c r="U6" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V6" s="1">
         <v>0</v>
       </c>
       <c r="W6" s="1">
-        <v>0</v>
+        <v>1361164</v>
       </c>
       <c r="X6" s="1">
-        <v>1361164</v>
+        <v>99.893150329589844</v>
       </c>
       <c r="Y6" s="1">
-        <v>99.893150329589844</v>
+        <v>1456</v>
       </c>
       <c r="Z6" s="1">
-        <v>1456</v>
-      </c>
-      <c r="AA6" s="1">
         <v>0.10685297101736069</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26">
       <c r="A7" s="1">
         <v>2007</v>
       </c>
@@ -4919,67 +7479,64 @@
         <v>0</v>
       </c>
       <c r="H7" s="1">
+        <v>100</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1130351</v>
+      </c>
+      <c r="L7" s="1">
+        <v>82.954238891601563</v>
+      </c>
+      <c r="M7" s="1">
+        <v>232269</v>
+      </c>
+      <c r="N7" s="1">
+        <v>17.045764923095703</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1119609</v>
+      </c>
+      <c r="P7" s="1">
+        <v>82.165901184082031</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>243011</v>
+      </c>
+      <c r="R7" s="1">
+        <v>17.834098815917969</v>
+      </c>
+      <c r="S7" s="1">
         <v>1362620</v>
       </c>
-      <c r="I7" s="1">
+      <c r="T7" s="1">
         <v>100</v>
       </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>1130351</v>
-      </c>
-      <c r="M7" s="1">
-        <v>82.954238891601563</v>
-      </c>
-      <c r="N7" s="1">
-        <v>232269</v>
-      </c>
-      <c r="O7" s="1">
-        <v>17.045764923095703</v>
-      </c>
-      <c r="P7" s="1">
-        <v>1119609</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>82.165901184082031</v>
-      </c>
-      <c r="R7" s="1">
-        <v>243011</v>
-      </c>
-      <c r="S7" s="1">
-        <v>17.834098815917969</v>
-      </c>
-      <c r="T7" s="1">
-        <v>1362620</v>
-      </c>
       <c r="U7" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V7" s="1">
         <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>0</v>
+        <v>1361164</v>
       </c>
       <c r="X7" s="1">
-        <v>1361164</v>
+        <v>99.893150329589844</v>
       </c>
       <c r="Y7" s="1">
-        <v>99.893150329589844</v>
+        <v>1456</v>
       </c>
       <c r="Z7" s="1">
-        <v>1456</v>
-      </c>
-      <c r="AA7" s="1">
         <v>0.10685297101736069</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26">
       <c r="A8" s="1">
         <v>2012</v>
       </c>
@@ -5002,63 +7559,60 @@
         <v>0</v>
       </c>
       <c r="H8" s="1">
+        <v>100</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1129312</v>
+      </c>
+      <c r="L8" s="1">
+        <v>82.877983093261719</v>
+      </c>
+      <c r="M8" s="1">
+        <v>233308</v>
+      </c>
+      <c r="N8" s="1">
+        <v>17.122014999389648</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1119609</v>
+      </c>
+      <c r="P8" s="1">
+        <v>82.165901184082031</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>243011</v>
+      </c>
+      <c r="R8" s="1">
+        <v>17.834098815917969</v>
+      </c>
+      <c r="S8" s="1">
         <v>1362620</v>
       </c>
-      <c r="I8" s="1">
+      <c r="T8" s="1">
         <v>100</v>
       </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1129312</v>
-      </c>
-      <c r="M8" s="1">
-        <v>82.877983093261719</v>
-      </c>
-      <c r="N8" s="1">
-        <v>233308</v>
-      </c>
-      <c r="O8" s="1">
-        <v>17.122014999389648</v>
-      </c>
-      <c r="P8" s="1">
-        <v>1119609</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>82.165901184082031</v>
-      </c>
-      <c r="R8" s="1">
-        <v>243011</v>
-      </c>
-      <c r="S8" s="1">
-        <v>17.834098815917969</v>
-      </c>
-      <c r="T8" s="1">
-        <v>1362620</v>
-      </c>
       <c r="U8" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V8" s="1">
         <v>0</v>
       </c>
       <c r="W8" s="1">
-        <v>0</v>
+        <v>1361164</v>
       </c>
       <c r="X8" s="1">
-        <v>1361164</v>
+        <v>99.893150329589844</v>
       </c>
       <c r="Y8" s="1">
-        <v>99.893150329589844</v>
+        <v>1456</v>
       </c>
       <c r="Z8" s="1">
-        <v>1456</v>
-      </c>
-      <c r="AA8" s="1">
         <v>0.10685297101736069</v>
       </c>
     </row>
@@ -5069,7 +7623,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="A1:Z2"/>
@@ -5077,115 +7631,112 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="true" customWidth="true"/>
-    <col min="2" max="2" width="19.140625" bestFit="true" customWidth="true"/>
-    <col min="3" max="3" width="9" bestFit="true" customWidth="true"/>
-    <col min="4" max="4" width="12.85546875" bestFit="true" customWidth="true"/>
-    <col min="5" max="5" width="11.28515625" bestFit="true" customWidth="true"/>
-    <col min="6" max="6" width="15.28515625" bestFit="true" customWidth="true"/>
-    <col min="7" max="7" width="16.28515625" bestFit="true" customWidth="true"/>
-    <col min="8" max="8" width="20.28515625" bestFit="true" customWidth="true"/>
-    <col min="9" max="9" width="18.7109375" bestFit="true" customWidth="true"/>
-    <col min="10" max="10" width="22.7109375" bestFit="true" customWidth="true"/>
-    <col min="11" max="11" width="12.28515625" bestFit="true" customWidth="true"/>
-    <col min="12" max="12" width="16.28515625" bestFit="true" customWidth="true"/>
-    <col min="13" max="13" width="14.7109375" bestFit="true" customWidth="true"/>
-    <col min="14" max="14" width="18.7109375" bestFit="true" customWidth="true"/>
-    <col min="15" max="15" width="13.85546875" bestFit="true" customWidth="true"/>
-    <col min="16" max="16" width="17.85546875" bestFit="true" customWidth="true"/>
-    <col min="17" max="17" width="16.140625" bestFit="true" customWidth="true"/>
-    <col min="18" max="18" width="20.140625" bestFit="true" customWidth="true"/>
-    <col min="19" max="19" width="13.7109375" bestFit="true" customWidth="true"/>
-    <col min="20" max="20" width="17.7109375" bestFit="true" customWidth="true"/>
-    <col min="21" max="21" width="16" bestFit="true" customWidth="true"/>
-    <col min="22" max="22" width="20" bestFit="true" customWidth="true"/>
-    <col min="23" max="23" width="9.28515625" bestFit="true" customWidth="true"/>
-    <col min="24" max="24" width="13.28515625" bestFit="true" customWidth="true"/>
-    <col min="25" max="25" width="11.5703125" bestFit="true" customWidth="true"/>
-    <col min="26" max="26" width="15.5703125" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:25">
       <c r="A2" s="1">
         <v>2768433</v>
       </c>
@@ -5205,63 +7756,60 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>9538340</v>
+        <v>100</v>
       </c>
       <c r="H2" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
+        <v>8111832</v>
       </c>
       <c r="K2" s="1">
-        <v>8111832</v>
+        <v>85.044486999511719</v>
       </c>
       <c r="L2" s="1">
-        <v>85.044486999511719</v>
+        <v>1426508</v>
       </c>
       <c r="M2" s="1">
-        <v>1426508</v>
+        <v>14.955516815185547</v>
       </c>
       <c r="N2" s="1">
-        <v>14.955516815185547</v>
+        <v>3358827</v>
       </c>
       <c r="O2" s="1">
-        <v>3358827</v>
+        <v>35.213958740234375</v>
       </c>
       <c r="P2" s="1">
-        <v>35.213958740234375</v>
+        <v>6179513</v>
       </c>
       <c r="Q2" s="1">
-        <v>6179513</v>
+        <v>64.786041259765625</v>
       </c>
       <c r="R2" s="1">
-        <v>64.786041259765625</v>
+        <v>5450480</v>
       </c>
       <c r="S2" s="1">
-        <v>5450480</v>
+        <v>57.142856597900391</v>
       </c>
       <c r="T2" s="1">
-        <v>57.142856597900391</v>
+        <v>4087860</v>
       </c>
       <c r="U2" s="1">
-        <v>4087860</v>
+        <v>42.857143402099609</v>
       </c>
       <c r="V2" s="1">
-        <v>42.857143402099609</v>
+        <v>8166984</v>
       </c>
       <c r="W2" s="1">
-        <v>8166984</v>
+        <v>85.622695922851563</v>
       </c>
       <c r="X2" s="1">
-        <v>85.622695922851563</v>
+        <v>1371356</v>
       </c>
       <c r="Y2" s="1">
-        <v>1371356</v>
-      </c>
-      <c r="Z2" s="1">
         <v>14.377302169799805</v>
       </c>
     </row>
@@ -5272,7 +7820,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -5280,88 +7828,80 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="true" customWidth="true"/>
-    <col min="2" max="2" width="49.85546875" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -5373,8 +7913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0826E1C5-4384-4C7C-B625-80A6E29E5D5F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q25" sqref="P25:Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/results/initial_descriptives/combined/dataObsStats.xlsx
+++ b/results/initial_descriptives/combined/dataObsStats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\GitRepos\land-use\results\initial_descriptives\combined\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48CCC4C-8FD7-4E8B-9DB4-C05A33D0B501}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1260AF1D-445A-4DD9-93EC-0106AB787FFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="county-year" sheetId="1" r:id="rId1"/>

--- a/results/initial_descriptives/combined/dataObsStats.xlsx
+++ b/results/initial_descriptives/combined/dataObsStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\GitRepos\land-use\results\initial_descriptives\combined\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1260AF1D-445A-4DD9-93EC-0106AB787FFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6627EB40-F6F0-4780-8E7F-13FBE1786327}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="county-year" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="43">
   <si>
     <t>year</t>
-  </si>
-  <si>
-    <t>data_NRNRICRP</t>
   </si>
   <si>
     <t>datapcnt_NRI</t>
@@ -129,16 +126,34 @@
     <t>obs has NRI LU data in 1/6 classes of interest</t>
   </si>
   <si>
-    <t>obs has NRI(6classes), CRP, and 3 NR data components</t>
-  </si>
-  <si>
     <t>percent of all observations (data_NRI == 1)</t>
   </si>
   <si>
     <t>obs is missing data value</t>
   </si>
   <si>
-    <t>datapcnt_NRNRICRP</t>
+    <t>data_NRNRICRPNASS</t>
+  </si>
+  <si>
+    <t>datapcnt_NRNRICRPNASS</t>
+  </si>
+  <si>
+    <t>data_NRpasture</t>
+  </si>
+  <si>
+    <t>datapcnt_NRpasture</t>
+  </si>
+  <si>
+    <t>datami_NRpasture</t>
+  </si>
+  <si>
+    <t>datamipcnt_NRpasture</t>
+  </si>
+  <si>
+    <t>obs has NASS (pasture rents) data</t>
+  </si>
+  <si>
+    <t>obs has NRI(6classes), CRP, and 4 NR data components</t>
   </si>
 </sst>
 </file>
@@ -656,15 +671,105 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'county-year'!$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>datapcnt_NRpasture</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'county-year'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'county-year'!$AB$2:$AB$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.545570373535156</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E91B-43B6-8662-A5D1EED5D1B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
-          <c:order val="4"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>'county-year'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>datapcnt_NRNRICRP</c:v>
+                  <c:v>datapcnt_NRNRICRPNASS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1465,15 +1570,75 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'point-year'!$AA$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>data_NRpasture</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'point-year'!$AA$2:$AA$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>858764</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1362620</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1362620</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1362620</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8FF8-403B-91F2-3FD61AFCDEC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
-          <c:order val="4"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>'point-year'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>data_NRNRICRP</c:v>
+                  <c:v>data_NRNRICRPNASS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2274,15 +2439,75 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'point-year'!$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>datapcnt_NRpasture</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'point-year'!$AB$2:$AB$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.022998809814453</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2910-4CFF-9D26-8A4063FCBF45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
-          <c:order val="4"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>'point-year'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>datapcnt_NRNRICRP</c:v>
+                  <c:v>datapcnt_NRNRICRPNASS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3081,15 +3306,75 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'county-year'!$AA$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>data_NRpasture</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'county-year'!$AA$2:$AA$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3072</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2B45-4C74-A2BA-987829748109}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
-          <c:order val="4"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>'county-year'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>data_NRNRICRP</c:v>
+                  <c:v>data_NRNRICRPNASS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6058,10 +6343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6095,87 +6380,99 @@
     <col min="27" max="27" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>24</v>
+      <c r="AB1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:30">
       <c r="A2" s="1">
         <v>1982</v>
       </c>
@@ -6254,8 +6551,20 @@
       <c r="Z2" s="1">
         <v>100</v>
       </c>
+      <c r="AA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>3072</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:30">
       <c r="A3" s="1">
         <v>1987</v>
       </c>
@@ -6334,8 +6643,20 @@
       <c r="Z3" s="1">
         <v>0.2278645783662796</v>
       </c>
+      <c r="AA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>3072</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:30">
       <c r="A4" s="1">
         <v>1992</v>
       </c>
@@ -6414,8 +6735,20 @@
       <c r="Z4" s="1">
         <v>0.2278645783662796</v>
       </c>
+      <c r="AA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>3072</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:30">
       <c r="A5" s="1">
         <v>1997</v>
       </c>
@@ -6494,8 +6827,20 @@
       <c r="Z5" s="1">
         <v>0.2278645783662796</v>
       </c>
+      <c r="AA5" s="1">
+        <v>2075</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>67.545570373535156</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>997</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>32.454425811767578</v>
+      </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:30">
       <c r="A6" s="1">
         <v>2002</v>
       </c>
@@ -6574,8 +6919,20 @@
       <c r="Z6" s="1">
         <v>0.2278645783662796</v>
       </c>
+      <c r="AA6" s="1">
+        <v>3072</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>100</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:30">
       <c r="A7" s="1">
         <v>2007</v>
       </c>
@@ -6654,8 +7011,20 @@
       <c r="Z7" s="1">
         <v>0.2278645783662796</v>
       </c>
+      <c r="AA7" s="1">
+        <v>3072</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>100</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:30">
       <c r="A8" s="1">
         <v>2012</v>
       </c>
@@ -6733,6 +7102,18 @@
       </c>
       <c r="Z8" s="1">
         <v>0.2278645783662796</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>3072</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>100</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6742,10 +7123,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Z2"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6778,84 +7159,96 @@
     <col min="26" max="26" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
+      <c r="AA1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:29">
       <c r="A2" s="1">
         <v>6153</v>
       </c>
@@ -6930,6 +7323,18 @@
       </c>
       <c r="Y2" s="1">
         <v>14.481026649475098</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>11291</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>52.506511688232422</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>10213</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>47.493488311767578</v>
       </c>
     </row>
   </sheetData>
@@ -6939,9 +7344,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="G5" sqref="A1:AA8"/>
     </sheetView>
   </sheetViews>
@@ -6976,87 +7381,99 @@
     <col min="27" max="27" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>24</v>
+      <c r="AB1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:30">
       <c r="A2" s="1">
         <v>1982</v>
       </c>
@@ -7135,8 +7552,20 @@
       <c r="Z2" s="1">
         <v>100</v>
       </c>
+      <c r="AA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>1362620</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:30">
       <c r="A3" s="1">
         <v>1987</v>
       </c>
@@ -7215,8 +7644,20 @@
       <c r="Z3" s="1">
         <v>0.10685297101736069</v>
       </c>
+      <c r="AA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>1362620</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:30">
       <c r="A4" s="1">
         <v>1992</v>
       </c>
@@ -7295,8 +7736,20 @@
       <c r="Z4" s="1">
         <v>0.10685297101736069</v>
       </c>
+      <c r="AA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>1362620</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:30">
       <c r="A5" s="1">
         <v>1997</v>
       </c>
@@ -7375,8 +7828,20 @@
       <c r="Z5" s="1">
         <v>0.10685297101736069</v>
       </c>
+      <c r="AA5" s="1">
+        <v>858764</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>63.022998809814453</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>503856</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>36.977001190185547</v>
+      </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:30">
       <c r="A6" s="1">
         <v>2002</v>
       </c>
@@ -7455,8 +7920,20 @@
       <c r="Z6" s="1">
         <v>0.10685297101736069</v>
       </c>
+      <c r="AA6" s="1">
+        <v>1362620</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>100</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:30">
       <c r="A7" s="1">
         <v>2007</v>
       </c>
@@ -7535,8 +8012,20 @@
       <c r="Z7" s="1">
         <v>0.10685297101736069</v>
       </c>
+      <c r="AA7" s="1">
+        <v>1362620</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>100</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:30">
       <c r="A8" s="1">
         <v>2012</v>
       </c>
@@ -7614,6 +8103,18 @@
       </c>
       <c r="Z8" s="1">
         <v>0.10685297101736069</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>1362620</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>100</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7623,7 +8124,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="A1:Z2"/>
@@ -7659,84 +8160,96 @@
     <col min="26" max="26" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
+      <c r="AA1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:29">
       <c r="A2" s="1">
         <v>2768433</v>
       </c>
@@ -7811,6 +8324,18 @@
       </c>
       <c r="Y2" s="1">
         <v>14.377302169799805</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>4946624</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>51.860427856445313</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>4591716</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>48.139572143554688</v>
       </c>
     </row>
   </sheetData>
@@ -7820,7 +8345,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -7834,74 +8359,82 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -7913,8 +8446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0826E1C5-4384-4C7C-B625-80A6E29E5D5F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="P25:Q25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/results/initial_descriptives/combined/dataObsStats.xlsx
+++ b/results/initial_descriptives/combined/dataObsStats.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6627EB40-F6F0-4780-8E7F-13FBE1786327}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="county-year" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="variables" sheetId="5" r:id="rId5"/>
     <sheet name="charts" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="43">
   <si>
     <t>year</t>
   </si>
@@ -195,7 +195,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5890,7 +5890,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -5908,7 +5908,7 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C35E045-3015-4EC8-8467-9625CD03B0FA}"/>
             </a:ext>
           </a:extLst>
@@ -5946,7 +5946,7 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7227C61E-E1DB-4E2D-8C35-7F2B3D7404C9}"/>
             </a:ext>
           </a:extLst>
@@ -5984,7 +5984,7 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{766482C0-10E9-436A-A6E8-7B148E98139F}"/>
             </a:ext>
           </a:extLst>
@@ -6022,7 +6022,7 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B52DD029-52D6-4B1F-BF92-63A40838B09F}"/>
             </a:ext>
           </a:extLst>
@@ -6343,7 +6343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
@@ -6351,36 +6351,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="15.140625" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="19.140625" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="9" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="12.85546875" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="11.28515625" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="15.28515625" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="16.28515625" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="20.28515625" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="18.7109375" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="22.7109375" bestFit="true" customWidth="true"/>
+    <col min="12" max="12" width="12.28515625" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="16.28515625" bestFit="true" customWidth="true"/>
+    <col min="14" max="14" width="14.7109375" bestFit="true" customWidth="true"/>
+    <col min="15" max="15" width="18.7109375" bestFit="true" customWidth="true"/>
+    <col min="16" max="16" width="13.85546875" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="17.85546875" bestFit="true" customWidth="true"/>
+    <col min="18" max="18" width="16.140625" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="20.140625" bestFit="true" customWidth="true"/>
+    <col min="20" max="20" width="13.7109375" bestFit="true" customWidth="true"/>
+    <col min="21" max="21" width="17.7109375" bestFit="true" customWidth="true"/>
+    <col min="22" max="22" width="16" bestFit="true" customWidth="true"/>
+    <col min="23" max="23" width="20" bestFit="true" customWidth="true"/>
+    <col min="24" max="24" width="9.28515625" bestFit="true" customWidth="true"/>
+    <col min="25" max="25" width="13.28515625" bestFit="true" customWidth="true"/>
+    <col min="26" max="26" width="11.5703125" bestFit="true" customWidth="true"/>
+    <col min="27" max="27" width="15.5703125" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2">
       <c r="A2" s="1">
         <v>1982</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3">
       <c r="A3" s="1">
         <v>1987</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4">
       <c r="A4" s="1">
         <v>1992</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5">
       <c r="A5" s="1">
         <v>1997</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>32.454425811767578</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6">
       <c r="A6" s="1">
         <v>2002</v>
       </c>
@@ -6932,7 +6932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7">
       <c r="A7" s="1">
         <v>2007</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8">
       <c r="A8" s="1">
         <v>2012</v>
       </c>
@@ -7114,6 +7114,98 @@
       </c>
       <c r="AD8" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3072</v>
+      </c>
+      <c r="E9" s="1">
+        <v>100</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>100</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>3072</v>
+      </c>
+      <c r="N9" s="1">
+        <v>100</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>3072</v>
+      </c>
+      <c r="R9" s="1">
+        <v>100</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>3072</v>
+      </c>
+      <c r="V9" s="1">
+        <v>100</v>
+      </c>
+      <c r="W9" s="1">
+        <v>3065</v>
+      </c>
+      <c r="X9" s="1">
+        <v>99.772132873535156</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>7</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>0.2278645783662796</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>2828</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>92.057289123535156</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>244</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>7.9427084922790527</v>
       </c>
     </row>
   </sheetData>
@@ -7131,35 +7223,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="19.140625" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="9" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="12.85546875" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="11.28515625" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="15.28515625" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="16.28515625" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="20.28515625" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="18.7109375" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="22.7109375" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="12.28515625" bestFit="true" customWidth="true"/>
+    <col min="12" max="12" width="16.28515625" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="14.7109375" bestFit="true" customWidth="true"/>
+    <col min="14" max="14" width="18.7109375" bestFit="true" customWidth="true"/>
+    <col min="15" max="15" width="13.85546875" bestFit="true" customWidth="true"/>
+    <col min="16" max="16" width="17.85546875" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="16.140625" bestFit="true" customWidth="true"/>
+    <col min="18" max="18" width="20.140625" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="13.7109375" bestFit="true" customWidth="true"/>
+    <col min="20" max="20" width="17.7109375" bestFit="true" customWidth="true"/>
+    <col min="21" max="21" width="16" bestFit="true" customWidth="true"/>
+    <col min="22" max="22" width="20" bestFit="true" customWidth="true"/>
+    <col min="23" max="23" width="9.28515625" bestFit="true" customWidth="true"/>
+    <col min="24" max="24" width="13.28515625" bestFit="true" customWidth="true"/>
+    <col min="25" max="25" width="11.5703125" bestFit="true" customWidth="true"/>
+    <col min="26" max="26" width="15.5703125" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -7248,15 +7340,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2">
       <c r="A2" s="1">
         <v>6153</v>
       </c>
       <c r="B2" s="1">
-        <v>28.61328125</v>
+        <v>25.03662109375</v>
       </c>
       <c r="C2" s="1">
-        <v>21504</v>
+        <v>24576</v>
       </c>
       <c r="D2" s="1">
         <v>100</v>
@@ -7280,61 +7372,61 @@
         <v>17713</v>
       </c>
       <c r="K2" s="1">
-        <v>82.370719909667969</v>
+        <v>72.074378967285156</v>
       </c>
       <c r="L2" s="1">
-        <v>3791</v>
+        <v>6863</v>
       </c>
       <c r="M2" s="1">
-        <v>17.629278182983398</v>
+        <v>27.925619125366211</v>
       </c>
       <c r="N2" s="1">
         <v>7692</v>
       </c>
       <c r="O2" s="1">
-        <v>35.770088195800781</v>
+        <v>31.298828125</v>
       </c>
       <c r="P2" s="1">
-        <v>13812</v>
+        <v>16884</v>
       </c>
       <c r="Q2" s="1">
-        <v>64.229911804199219</v>
+        <v>68.701171875</v>
       </c>
       <c r="R2" s="1">
         <v>12288</v>
       </c>
       <c r="S2" s="1">
-        <v>57.142856597900391</v>
+        <v>50</v>
       </c>
       <c r="T2" s="1">
-        <v>9216</v>
+        <v>12288</v>
       </c>
       <c r="U2" s="1">
-        <v>42.857143402099609</v>
+        <v>50</v>
       </c>
       <c r="V2" s="1">
-        <v>18390</v>
+        <v>21455</v>
       </c>
       <c r="W2" s="1">
-        <v>85.518974304199219</v>
+        <v>87.300621032714844</v>
       </c>
       <c r="X2" s="1">
-        <v>3114</v>
+        <v>3121</v>
       </c>
       <c r="Y2" s="1">
-        <v>14.481026649475098</v>
+        <v>12.699381828308105</v>
       </c>
       <c r="Z2" s="1">
-        <v>11291</v>
+        <v>14119</v>
       </c>
       <c r="AA2" s="1">
-        <v>52.506511688232422</v>
+        <v>57.450359344482422</v>
       </c>
       <c r="AB2" s="1">
-        <v>10213</v>
+        <v>10457</v>
       </c>
       <c r="AC2" s="1">
-        <v>47.493488311767578</v>
+        <v>42.549640655517578</v>
       </c>
     </row>
   </sheetData>
@@ -7344,7 +7436,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="G5" sqref="A1:AA8"/>
@@ -7352,36 +7444,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="15.140625" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="19.140625" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="9" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="12.85546875" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="11.28515625" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="15.28515625" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="16.28515625" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="20.28515625" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="18.7109375" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="22.7109375" bestFit="true" customWidth="true"/>
+    <col min="12" max="12" width="12.28515625" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="16.28515625" bestFit="true" customWidth="true"/>
+    <col min="14" max="14" width="14.7109375" bestFit="true" customWidth="true"/>
+    <col min="15" max="15" width="18.7109375" bestFit="true" customWidth="true"/>
+    <col min="16" max="16" width="13.85546875" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="17.85546875" bestFit="true" customWidth="true"/>
+    <col min="18" max="18" width="16.140625" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="20.140625" bestFit="true" customWidth="true"/>
+    <col min="20" max="20" width="13.7109375" bestFit="true" customWidth="true"/>
+    <col min="21" max="21" width="17.7109375" bestFit="true" customWidth="true"/>
+    <col min="22" max="22" width="16" bestFit="true" customWidth="true"/>
+    <col min="23" max="23" width="20" bestFit="true" customWidth="true"/>
+    <col min="24" max="24" width="9.28515625" bestFit="true" customWidth="true"/>
+    <col min="25" max="25" width="13.28515625" bestFit="true" customWidth="true"/>
+    <col min="26" max="26" width="11.5703125" bestFit="true" customWidth="true"/>
+    <col min="27" max="27" width="15.5703125" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7473,7 +7565,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2">
       <c r="A2" s="1">
         <v>1982</v>
       </c>
@@ -7565,7 +7657,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3">
       <c r="A3" s="1">
         <v>1987</v>
       </c>
@@ -7657,7 +7749,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4">
       <c r="A4" s="1">
         <v>1992</v>
       </c>
@@ -7749,7 +7841,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5">
       <c r="A5" s="1">
         <v>1997</v>
       </c>
@@ -7841,7 +7933,7 @@
         <v>36.977001190185547</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6">
       <c r="A6" s="1">
         <v>2002</v>
       </c>
@@ -7933,7 +8025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7">
       <c r="A7" s="1">
         <v>2007</v>
       </c>
@@ -8025,7 +8117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8">
       <c r="A8" s="1">
         <v>2012</v>
       </c>
@@ -8115,6 +8207,98 @@
       </c>
       <c r="AD8" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1362620</v>
+      </c>
+      <c r="E9" s="1">
+        <v>100</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>100</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1362620</v>
+      </c>
+      <c r="N9" s="1">
+        <v>100</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1362620</v>
+      </c>
+      <c r="R9" s="1">
+        <v>100</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>1362620</v>
+      </c>
+      <c r="V9" s="1">
+        <v>100</v>
+      </c>
+      <c r="W9" s="1">
+        <v>1361164</v>
+      </c>
+      <c r="X9" s="1">
+        <v>99.893150329589844</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>1456</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>0.10685297101736069</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>1226047</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>89.9771728515625</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>136573</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>10.022823333740234</v>
       </c>
     </row>
   </sheetData>
@@ -8132,35 +8316,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="19.140625" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="9" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="12.85546875" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="11.28515625" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="15.28515625" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="16.28515625" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="20.28515625" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="18.7109375" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="22.7109375" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="12.28515625" bestFit="true" customWidth="true"/>
+    <col min="12" max="12" width="16.28515625" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="14.7109375" bestFit="true" customWidth="true"/>
+    <col min="14" max="14" width="18.7109375" bestFit="true" customWidth="true"/>
+    <col min="15" max="15" width="13.85546875" bestFit="true" customWidth="true"/>
+    <col min="16" max="16" width="17.85546875" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="16.140625" bestFit="true" customWidth="true"/>
+    <col min="18" max="18" width="20.140625" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="13.7109375" bestFit="true" customWidth="true"/>
+    <col min="20" max="20" width="17.7109375" bestFit="true" customWidth="true"/>
+    <col min="21" max="21" width="16" bestFit="true" customWidth="true"/>
+    <col min="22" max="22" width="20" bestFit="true" customWidth="true"/>
+    <col min="23" max="23" width="9.28515625" bestFit="true" customWidth="true"/>
+    <col min="24" max="24" width="13.28515625" bestFit="true" customWidth="true"/>
+    <col min="25" max="25" width="11.5703125" bestFit="true" customWidth="true"/>
+    <col min="26" max="26" width="15.5703125" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -8249,15 +8433,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2">
       <c r="A2" s="1">
         <v>2768433</v>
       </c>
       <c r="B2" s="1">
-        <v>29.024263381958008</v>
+        <v>25.396230697631836</v>
       </c>
       <c r="C2" s="1">
-        <v>9538340</v>
+        <v>10900960</v>
       </c>
       <c r="D2" s="1">
         <v>100</v>
@@ -8281,61 +8465,61 @@
         <v>8111832</v>
       </c>
       <c r="K2" s="1">
-        <v>85.044486999511719</v>
+        <v>74.413925170898438</v>
       </c>
       <c r="L2" s="1">
-        <v>1426508</v>
+        <v>2789128</v>
       </c>
       <c r="M2" s="1">
-        <v>14.955516815185547</v>
+        <v>25.586076736450195</v>
       </c>
       <c r="N2" s="1">
         <v>3358827</v>
       </c>
       <c r="O2" s="1">
-        <v>35.213958740234375</v>
+        <v>30.812211990356445</v>
       </c>
       <c r="P2" s="1">
-        <v>6179513</v>
+        <v>7542133</v>
       </c>
       <c r="Q2" s="1">
-        <v>64.786041259765625</v>
+        <v>69.187789916992188</v>
       </c>
       <c r="R2" s="1">
         <v>5450480</v>
       </c>
       <c r="S2" s="1">
-        <v>57.142856597900391</v>
+        <v>50</v>
       </c>
       <c r="T2" s="1">
-        <v>4087860</v>
+        <v>5450480</v>
       </c>
       <c r="U2" s="1">
-        <v>42.857143402099609</v>
+        <v>50</v>
       </c>
       <c r="V2" s="1">
-        <v>8166984</v>
+        <v>9528148</v>
       </c>
       <c r="W2" s="1">
-        <v>85.622695922851563</v>
+        <v>87.406501770019531</v>
       </c>
       <c r="X2" s="1">
-        <v>1371356</v>
+        <v>1372812</v>
       </c>
       <c r="Y2" s="1">
-        <v>14.377302169799805</v>
+        <v>12.593496322631836</v>
       </c>
       <c r="Z2" s="1">
-        <v>4946624</v>
+        <v>6172671</v>
       </c>
       <c r="AA2" s="1">
-        <v>51.860427856445313</v>
+        <v>56.625022888183594</v>
       </c>
       <c r="AB2" s="1">
-        <v>4591716</v>
+        <v>4728289</v>
       </c>
       <c r="AC2" s="1">
-        <v>48.139572143554688</v>
+        <v>43.374977111816406</v>
       </c>
     </row>
   </sheetData>
@@ -8353,11 +8537,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="49.85546875" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -8365,7 +8549,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -8373,7 +8557,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -8381,7 +8565,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -8389,7 +8573,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -8397,7 +8581,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -8405,7 +8589,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -8413,7 +8597,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -8421,7 +8605,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -8429,7 +8613,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -8446,7 +8630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0826E1C5-4384-4C7C-B625-80A6E29E5D5F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="true" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>

--- a/results/initial_descriptives/combined/dataObsStats.xlsx
+++ b/results/initial_descriptives/combined/dataObsStats.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="43">
   <si>
     <t>year</t>
   </si>
@@ -6804,16 +6804,16 @@
         <v>100</v>
       </c>
       <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
         <v>3072</v>
       </c>
-      <c r="T5" s="1">
+      <c r="V5" s="1">
         <v>100</v>
-      </c>
-      <c r="U5" s="1">
-        <v>0</v>
-      </c>
-      <c r="V5" s="1">
-        <v>0</v>
       </c>
       <c r="W5" s="1">
         <v>3065</v>
@@ -6845,10 +6845,10 @@
         <v>2002</v>
       </c>
       <c r="B6" s="1">
-        <v>2069</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>67.350257873535156</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
         <v>3072</v>
@@ -6896,16 +6896,16 @@
         <v>16.536458969116211</v>
       </c>
       <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
         <v>3072</v>
       </c>
-      <c r="T6" s="1">
+      <c r="V6" s="1">
         <v>100</v>
-      </c>
-      <c r="U6" s="1">
-        <v>0</v>
-      </c>
-      <c r="V6" s="1">
-        <v>0</v>
       </c>
       <c r="W6" s="1">
         <v>3065</v>
@@ -6937,10 +6937,10 @@
         <v>2007</v>
       </c>
       <c r="B7" s="1">
-        <v>2041</v>
+        <v>2034</v>
       </c>
       <c r="C7" s="1">
-        <v>66.438804626464844</v>
+        <v>66.2109375</v>
       </c>
       <c r="D7" s="1">
         <v>3072</v>
@@ -6988,16 +6988,16 @@
         <v>16.536458969116211</v>
       </c>
       <c r="S7" s="1">
-        <v>3072</v>
+        <v>3056</v>
       </c>
       <c r="T7" s="1">
-        <v>100</v>
+        <v>99.479164123535156</v>
       </c>
       <c r="U7" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="V7" s="1">
-        <v>0</v>
+        <v>0.52083331346511841</v>
       </c>
       <c r="W7" s="1">
         <v>3065</v>
@@ -7029,10 +7029,10 @@
         <v>2012</v>
       </c>
       <c r="B8" s="1">
-        <v>2043</v>
+        <v>2020</v>
       </c>
       <c r="C8" s="1">
-        <v>66.50390625</v>
+        <v>65.755210876464844</v>
       </c>
       <c r="D8" s="1">
         <v>3072</v>
@@ -7080,16 +7080,16 @@
         <v>16.536458969116211</v>
       </c>
       <c r="S8" s="1">
-        <v>3072</v>
+        <v>3027</v>
       </c>
       <c r="T8" s="1">
-        <v>100</v>
+        <v>98.53515625</v>
       </c>
       <c r="U8" s="1">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="V8" s="1">
-        <v>0</v>
+        <v>1.46484375</v>
       </c>
       <c r="W8" s="1">
         <v>3065</v>
@@ -7172,16 +7172,16 @@
         <v>100</v>
       </c>
       <c r="S9" s="1">
-        <v>0</v>
+        <v>3072</v>
       </c>
       <c r="T9" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U9" s="1">
-        <v>3072</v>
+        <v>0</v>
       </c>
       <c r="V9" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W9" s="1">
         <v>3065</v>
@@ -7342,10 +7342,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>6153</v>
+        <v>4054</v>
       </c>
       <c r="B2" s="1">
-        <v>25.03662109375</v>
+        <v>16.495767593383789</v>
       </c>
       <c r="C2" s="1">
         <v>24576</v>
@@ -7393,16 +7393,16 @@
         <v>68.701171875</v>
       </c>
       <c r="R2" s="1">
-        <v>12288</v>
+        <v>9155</v>
       </c>
       <c r="S2" s="1">
-        <v>50</v>
+        <v>37.251789093017578</v>
       </c>
       <c r="T2" s="1">
-        <v>12288</v>
+        <v>15421</v>
       </c>
       <c r="U2" s="1">
-        <v>50</v>
+        <v>62.748210906982422</v>
       </c>
       <c r="V2" s="1">
         <v>21455</v>
@@ -7897,16 +7897,16 @@
         <v>100</v>
       </c>
       <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
         <v>1362620</v>
       </c>
-      <c r="T5" s="1">
+      <c r="V5" s="1">
         <v>100</v>
-      </c>
-      <c r="U5" s="1">
-        <v>0</v>
-      </c>
-      <c r="V5" s="1">
-        <v>0</v>
       </c>
       <c r="W5" s="1">
         <v>1361164</v>
@@ -7938,10 +7938,10 @@
         <v>2002</v>
       </c>
       <c r="B6" s="1">
-        <v>929707</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>68.2293701171875</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
         <v>1362620</v>
@@ -7989,16 +7989,16 @@
         <v>17.834098815917969</v>
       </c>
       <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
         <v>1362620</v>
       </c>
-      <c r="T6" s="1">
+      <c r="V6" s="1">
         <v>100</v>
-      </c>
-      <c r="U6" s="1">
-        <v>0</v>
-      </c>
-      <c r="V6" s="1">
-        <v>0</v>
       </c>
       <c r="W6" s="1">
         <v>1361164</v>
@@ -8030,10 +8030,10 @@
         <v>2007</v>
       </c>
       <c r="B7" s="1">
-        <v>919098</v>
+        <v>915810</v>
       </c>
       <c r="C7" s="1">
-        <v>67.450790405273438</v>
+        <v>67.209495544433594</v>
       </c>
       <c r="D7" s="1">
         <v>1362620</v>
@@ -8081,16 +8081,16 @@
         <v>17.834098815917969</v>
       </c>
       <c r="S7" s="1">
-        <v>1362620</v>
+        <v>1356702</v>
       </c>
       <c r="T7" s="1">
-        <v>100</v>
+        <v>99.565689086914063</v>
       </c>
       <c r="U7" s="1">
-        <v>0</v>
+        <v>5918</v>
       </c>
       <c r="V7" s="1">
-        <v>0</v>
+        <v>0.43431037664413452</v>
       </c>
       <c r="W7" s="1">
         <v>1361164</v>
@@ -8122,10 +8122,10 @@
         <v>2012</v>
       </c>
       <c r="B8" s="1">
-        <v>919628</v>
+        <v>904424</v>
       </c>
       <c r="C8" s="1">
-        <v>67.489692687988281</v>
+        <v>66.373893737792969</v>
       </c>
       <c r="D8" s="1">
         <v>1362620</v>
@@ -8173,16 +8173,16 @@
         <v>17.834098815917969</v>
       </c>
       <c r="S8" s="1">
-        <v>1362620</v>
+        <v>1335431</v>
       </c>
       <c r="T8" s="1">
-        <v>100</v>
+        <v>98.004653930664063</v>
       </c>
       <c r="U8" s="1">
-        <v>0</v>
+        <v>27189</v>
       </c>
       <c r="V8" s="1">
-        <v>0</v>
+        <v>1.9953471422195435</v>
       </c>
       <c r="W8" s="1">
         <v>1361164</v>
@@ -8265,16 +8265,16 @@
         <v>100</v>
       </c>
       <c r="S9" s="1">
-        <v>0</v>
+        <v>1362620</v>
       </c>
       <c r="T9" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U9" s="1">
-        <v>1362620</v>
+        <v>0</v>
       </c>
       <c r="V9" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W9" s="1">
         <v>1361164</v>
@@ -8435,10 +8435,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>2768433</v>
+        <v>1820234</v>
       </c>
       <c r="B2" s="1">
-        <v>25.396230697631836</v>
+        <v>16.69792366027832</v>
       </c>
       <c r="C2" s="1">
         <v>10900960</v>
@@ -8486,16 +8486,16 @@
         <v>69.187789916992188</v>
       </c>
       <c r="R2" s="1">
-        <v>5450480</v>
+        <v>4054753</v>
       </c>
       <c r="S2" s="1">
-        <v>50</v>
+        <v>37.196292877197266</v>
       </c>
       <c r="T2" s="1">
-        <v>5450480</v>
+        <v>6846207</v>
       </c>
       <c r="U2" s="1">
-        <v>50</v>
+        <v>62.803707122802734</v>
       </c>
       <c r="V2" s="1">
         <v>9528148</v>

--- a/results/initial_descriptives/combined/dataObsStats.xlsx
+++ b/results/initial_descriptives/combined/dataObsStats.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="43">
   <si>
     <t>year</t>
   </si>
@@ -6845,10 +6845,10 @@
         <v>2002</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>2069</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>67.350257873535156</v>
       </c>
       <c r="D6" s="1">
         <v>3072</v>
@@ -6896,16 +6896,16 @@
         <v>16.536458969116211</v>
       </c>
       <c r="S6" s="1">
-        <v>0</v>
+        <v>3072</v>
       </c>
       <c r="T6" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U6" s="1">
-        <v>3072</v>
+        <v>0</v>
       </c>
       <c r="V6" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W6" s="1">
         <v>3065</v>
@@ -7342,10 +7342,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>4054</v>
+        <v>6123</v>
       </c>
       <c r="B2" s="1">
-        <v>16.495767593383789</v>
+        <v>24.91455078125</v>
       </c>
       <c r="C2" s="1">
         <v>24576</v>
@@ -7393,16 +7393,16 @@
         <v>68.701171875</v>
       </c>
       <c r="R2" s="1">
-        <v>9155</v>
+        <v>12227</v>
       </c>
       <c r="S2" s="1">
-        <v>37.251789093017578</v>
+        <v>49.751789093017578</v>
       </c>
       <c r="T2" s="1">
-        <v>15421</v>
+        <v>12349</v>
       </c>
       <c r="U2" s="1">
-        <v>62.748210906982422</v>
+        <v>50.248210906982422</v>
       </c>
       <c r="V2" s="1">
         <v>21455</v>
@@ -7938,10 +7938,10 @@
         <v>2002</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>929707</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>68.2293701171875</v>
       </c>
       <c r="D6" s="1">
         <v>1362620</v>
@@ -7989,16 +7989,16 @@
         <v>17.834098815917969</v>
       </c>
       <c r="S6" s="1">
-        <v>0</v>
+        <v>1362620</v>
       </c>
       <c r="T6" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U6" s="1">
-        <v>1362620</v>
+        <v>0</v>
       </c>
       <c r="V6" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W6" s="1">
         <v>1361164</v>
@@ -8435,10 +8435,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>1820234</v>
+        <v>2749941</v>
       </c>
       <c r="B2" s="1">
-        <v>16.69792366027832</v>
+        <v>25.226594924926758</v>
       </c>
       <c r="C2" s="1">
         <v>10900960</v>
@@ -8486,16 +8486,16 @@
         <v>69.187789916992188</v>
       </c>
       <c r="R2" s="1">
-        <v>4054753</v>
+        <v>5417373</v>
       </c>
       <c r="S2" s="1">
-        <v>37.196292877197266</v>
+        <v>49.696292877197266</v>
       </c>
       <c r="T2" s="1">
-        <v>6846207</v>
+        <v>5483587</v>
       </c>
       <c r="U2" s="1">
-        <v>62.803707122802734</v>
+        <v>50.303707122802734</v>
       </c>
       <c r="V2" s="1">
         <v>9528148</v>
